--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F04B01-59F7-40A0-902F-F3032438ED10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201F98F6-398A-4CF8-94DD-CBCB953AD6B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>开支</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>养护费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油退费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +244,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,45 +559,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="10.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9" style="4"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="10.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="8"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -602,13 +614,16 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -633,12 +648,15 @@
         <v>116.8</v>
       </c>
       <c r="I3" s="4">
-        <f>H3-(C3+D3+E3+F3+G3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -661,29 +679,61 @@
         <v>1201.4000000000001</v>
       </c>
       <c r="I4" s="4">
-        <f>H4-(C4+D4+E4+F4+G4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>(H4+I4)-(C4+D4+E4+F4+G4)</f>
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>575</v>
+      </c>
+      <c r="D5" s="4">
+        <v>110</v>
+      </c>
+      <c r="E5" s="4">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>316.60000000000002</v>
+      </c>
+      <c r="I5" s="4">
+        <v>15.33</v>
+      </c>
+      <c r="J5" s="4">
+        <f>(H5+I5)-(C5+D5+E5+F5+G5)</f>
+        <v>-388.07</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201F98F6-398A-4CF8-94DD-CBCB953AD6B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD0279A-B234-4978-BEC7-0300F6A829DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>开支</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>加油退费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +566,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,6 +723,34 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>505</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>143</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f>(H6+I6)-(C6+D6+E6+F6+G6)</f>
+        <v>-382</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD0279A-B234-4978-BEC7-0300F6A829DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0058A3BE-B98F-460A-80C1-6B3251D3A294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>开支</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +570,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,6 +758,34 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>190</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f>(H7+I7)-(C7+D7+E7+F7+G7)</f>
+        <v>-210</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0058A3BE-B98F-460A-80C1-6B3251D3A294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1343FC17-2033-4D41-93BC-2FD603C69D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>开支</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +574,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,6 +793,34 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f>(H8+I8)-(C8+D8+E8+F8+G8)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1343FC17-2033-4D41-93BC-2FD603C69D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4CD3A2-B49F-469A-B0EA-DD1AF14412E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>开支</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +100,14 @@
   </si>
   <si>
     <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f>(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J9" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
@@ -694,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f>(H4+I4)-(C4+D4+E4+F4+G4)</f>
+        <f t="shared" si="0"/>
         <v>6.2000000000000455</v>
       </c>
     </row>
@@ -725,7 +727,7 @@
         <v>15.33</v>
       </c>
       <c r="J5" s="4">
-        <f>(H5+I5)-(C5+D5+E5+F5+G5)</f>
+        <f t="shared" si="0"/>
         <v>-388.07</v>
       </c>
     </row>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <f>(H6+I6)-(C6+D6+E6+F6+G6)</f>
+        <f t="shared" si="0"/>
         <v>-382</v>
       </c>
     </row>
@@ -787,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f>(H7+I7)-(C7+D7+E7+F7+G7)</f>
+        <f t="shared" si="0"/>
         <v>-210</v>
       </c>
     </row>
@@ -818,12 +820,79 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f>(H8+I8)-(C8+D8+E8+F8+G8)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4">
+        <v>260</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A9:A20"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="B1:B2"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4CD3A2-B49F-469A-B0EA-DD1AF14412E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260BE53-5D47-4773-88B1-C0C2F8E19A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>开支</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,6 +267,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -273,15 +286,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,7 +580,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,10 +593,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -606,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="I1" s="15"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -634,10 +638,10 @@
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -665,12 +669,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J9" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J10" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -701,7 +705,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -732,7 +736,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -763,7 +767,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -794,7 +798,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -825,7 +829,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -858,37 +862,65 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
+        <v>280</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>-285</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="7"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="7"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="7"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,141 +1,261 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260BE53-5D47-4773-88B1-C0C2F8E19A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19665" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>月份</t>
+  </si>
   <si>
     <t>开支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差额</t>
   </si>
   <si>
     <t>油费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过路费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车费</t>
+  </si>
+  <si>
+    <t>违章费用</t>
+  </si>
+  <si>
+    <t>养护费用</t>
   </si>
   <si>
     <t>顺风车收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停车费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油退费</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违章费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养护费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油退费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +268,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -159,66 +465,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -226,89 +508,393 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -357,7 +943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -392,7 +978,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -432,7 +1018,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -456,9 +1042,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -482,7 +1068,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -535,7 +1121,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -560,380 +1146,403 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="10.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="true"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="C3" s="2">
+        <v>571.73</v>
+      </c>
+      <c r="D3" s="2">
+        <v>278</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>116.8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J10" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <v>-732.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>668.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>481</v>
+      </c>
+      <c r="E4" s="2">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1201.4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.20000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>571.73</v>
-      </c>
-      <c r="D3" s="4">
-        <v>278</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>116.8</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J10" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
-        <v>-732.93000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>668.2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>481</v>
-      </c>
-      <c r="E4" s="4">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1201.4000000000001</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>6.2000000000000455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>575</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>110</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>35</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>316.60000000000002</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>316.6</v>
+      </c>
+      <c r="I5" s="2">
         <v>15.33</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>505</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>20</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>143</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>190</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>20</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <f>(H8+I8)-(C8+D8+E8+F8+G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>260</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>40</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>280</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>636</v>
+      </c>
+      <c r="D11" s="2">
+        <v>420</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>714</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f>(H11+I11)-(C11+D11+E11+F11+G11)</f>
+        <v>-1785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A8"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F6265D-E4A3-4D5C-8692-08D6AE352D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19665" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>年份</t>
   </si>
@@ -92,14 +86,22 @@
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,22 +110,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +274,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -147,42 +471,42 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -190,32 +514,32 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -224,79 +548,362 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -420,7 +1027,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -444,9 +1051,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -470,7 +1077,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -523,7 +1130,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -548,83 +1155,83 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="true"/>
     <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -652,12 +1259,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J10" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
-        <v>-732.93000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+        <f t="shared" ref="J3:J13" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <v>-732.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -677,18 +1284,18 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1201.4000000000001</v>
+        <v>1201.4</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>6.2000000000000455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+        <v>6.20000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -708,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>316.60000000000002</v>
+        <v>316.6</v>
       </c>
       <c r="I5" s="2">
         <v>15.33</v>
@@ -718,8 +1325,8 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -749,8 +1356,8 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -780,8 +1387,8 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -807,12 +1414,12 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <f>(H8+I8)-(C8+D8+E8+F8+G8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -844,8 +1451,8 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -875,8 +1482,8 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -902,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <f>(H11+I11)-(C11+D11+E11+F11+G11)</f>
+        <f t="shared" si="0"/>
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2">
@@ -933,46 +1540,74 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <f>(H12+I12)-(C12+D12+E12+F12+G12)</f>
-        <v>-734.93000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+        <f t="shared" si="0"/>
+        <v>-734.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>373</v>
+      </c>
+      <c r="D13" s="2">
+        <v>180</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>347.3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>-215.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\private\balance_sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF0559D-D754-453B-ADA3-1E80F79C6452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA24AB13-82DC-4FBE-B2E1-B2123F56E6AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19665" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>年份</t>
   </si>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -271,6 +275,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,21 +303,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,7 +583,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,30 +596,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -637,10 +641,10 @@
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -668,12 +672,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J14" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J15" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -704,7 +708,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -735,7 +739,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -766,7 +770,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -797,7 +801,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -828,7 +832,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -861,7 +865,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -892,7 +896,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -923,7 +927,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -954,7 +958,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -985,7 +989,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
@@ -1016,22 +1020,50 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>327.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>93</v>
+      </c>
+      <c r="E15" s="2">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>189.6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>-276.89999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="8"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HinsShum\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA24AB13-82DC-4FBE-B2E1-B2123F56E6AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D25D29-3446-436D-B2F4-9131926EEA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>年份</t>
   </si>
@@ -102,6 +113,10 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +598,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J15" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J16" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
@@ -1052,6 +1067,34 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>294.44</v>
+      </c>
+      <c r="D16" s="2">
+        <v>63.58</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>-95.419999999999959</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HinsShum\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D25D29-3446-436D-B2F4-9131926EEA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D3C17-044B-42FA-B348-4C3D843FA113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>年份</t>
   </si>
@@ -117,6 +106,10 @@
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +591,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J16" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J17" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
@@ -1096,16 +1089,44 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2">
+        <v>426.88</v>
+      </c>
+      <c r="D17" s="2">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>-278.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
     </row>
   </sheetData>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D3C17-044B-42FA-B348-4C3D843FA113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18930" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>年份</t>
   </si>
@@ -98,26 +92,19 @@
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,22 +120,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +277,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -259,11 +561,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,57 +818,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -582,19 +1164,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
@@ -603,56 +1185,56 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="13" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -680,12 +1262,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J17" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
-        <v>-732.93000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+        <f t="shared" ref="J3:J18" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <v>-732.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -705,18 +1287,18 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1201.4000000000001</v>
+        <v>1201.4</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>6.2000000000000455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+        <v>6.20000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -736,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>316.60000000000002</v>
+        <v>316.6</v>
       </c>
       <c r="I5" s="2">
         <v>15.33</v>
@@ -746,8 +1328,8 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -777,8 +1359,8 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -808,8 +1390,8 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -839,8 +1421,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -872,8 +1454,8 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -903,8 +1485,8 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -934,9 +1516,9 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2">
@@ -962,11 +1544,11 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-734.93000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+        <v>-734.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -996,13 +1578,13 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>309.33999999999997</v>
+        <v>309.34</v>
       </c>
       <c r="D14" s="2">
         <v>140</v>
@@ -1024,13 +1606,13 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-3986.7400000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+        <v>-3986.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
         <v>327.5</v>
@@ -1055,13 +1637,13 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-276.89999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>-276.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>294.44</v>
@@ -1079,20 +1661,20 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>262.60000000000002</v>
+        <v>262.6</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-95.419999999999959</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+        <v>-95.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>426.88</v>
@@ -1110,7 +1692,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="2">
-        <v>268.89999999999998</v>
+        <v>268.9</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1120,27 +1702,55 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+    <row r="18" spans="1:10">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>654</v>
+      </c>
+      <c r="D18" s="2">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>736.3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD76BE-C403-44A7-849F-55879502295D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18930" windowHeight="7980"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="20730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>年份</t>
   </si>
@@ -92,19 +98,30 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,151 +137,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,194 +165,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -561,253 +263,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -818,95 +278,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1164,19 +586,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J19" sqref="C3:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
@@ -1185,11 +607,11 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1198,42 +620,42 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="14"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1262,11 +684,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J18" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
-        <v>-732.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <f t="shared" ref="J3:J19" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <v>-732.93000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -1287,17 +709,17 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1201.4</v>
+        <v>1201.4000000000001</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>6.20000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>6.2000000000000455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -1318,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>316.6</v>
+        <v>316.60000000000002</v>
       </c>
       <c r="I5" s="2">
         <v>15.33</v>
@@ -1328,7 +750,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -1359,7 +781,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -1390,7 +812,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -1421,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +876,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -1485,7 +907,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -1516,9 +938,9 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2">
@@ -1544,10 +966,10 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-734.93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>-734.93000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1578,13 +1000,13 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>309.34</v>
+        <v>309.33999999999997</v>
       </c>
       <c r="D14" s="2">
         <v>140</v>
@@ -1606,10 +1028,10 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-3986.74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>-3986.7400000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1637,12 +1059,12 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-276.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>-276.89999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
@@ -1661,17 +1083,17 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-95.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>-95.419999999999959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1692,7 +1114,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="2">
-        <v>268.9</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1702,9 +1124,9 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
@@ -1730,27 +1152,55 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-11.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>-11.700000000000045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>356.85</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>285.2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>-77.650000000000034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD76BE-C403-44A7-849F-55879502295D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF613EF5-78A4-462E-B22D-B4C7A32C6C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="20730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>年份</t>
   </si>
@@ -114,6 +125,10 @@
       </rPr>
       <t>1</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -284,6 +299,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,12 +330,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +610,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="C3:J19"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,30 +623,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -653,10 +668,10 @@
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -684,12 +699,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J19" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J20" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -720,7 +735,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -751,7 +766,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -782,7 +797,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -813,7 +828,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -844,7 +859,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -877,7 +892,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -908,7 +923,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -939,7 +954,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -970,7 +985,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1001,7 +1016,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1032,7 +1047,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1078,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1094,7 +1109,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1140,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1156,8 +1171,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2">
@@ -1187,17 +1202,45 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>60.01</v>
+      </c>
+      <c r="D20" s="2">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>34.490000000000009</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF613EF5-78A4-462E-B22D-B4C7A32C6C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DB58EA-D8D1-491D-9981-2515F1F12067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>年份</t>
   </si>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,6 +310,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,19 +340,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,30 +640,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -668,10 +685,10 @@
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -699,12 +716,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J20" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J21" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -735,7 +752,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -766,7 +783,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -797,7 +814,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -828,7 +845,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -859,7 +876,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -892,7 +909,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -923,7 +940,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -954,7 +971,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -985,7 +1002,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1033,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1047,7 +1064,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1095,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1109,7 +1126,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1140,7 +1157,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1171,7 +1188,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1202,7 +1219,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1232,8 +1249,75 @@
         <v>34.490000000000009</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
+        <v>254.86</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>237.6</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>-21.180000000000035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A21:A32"/>
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="J1:J2"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DB58EA-D8D1-491D-9981-2515F1F12067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4976AC-C296-4408-A2F7-89E17043BB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>年份</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -310,6 +314,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,15 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,7 +631,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,30 +644,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="13" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -685,10 +689,10 @@
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -716,12 +720,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J21" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J22" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -752,7 +756,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -783,7 +787,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -814,7 +818,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -845,7 +849,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -876,7 +880,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -909,7 +913,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -940,7 +944,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -971,7 +975,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +1006,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1033,7 +1037,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1068,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1099,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1126,7 +1130,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1161,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +1192,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1219,7 +1223,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1254,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1283,37 +1287,65 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>272.27</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>50.7</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>-221.57</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4976AC-C296-4408-A2F7-89E17043BB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86910C7A-C2E1-44D3-9C0E-1884E475DB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>年份</t>
   </si>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -160,6 +164,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -631,7 +636,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J22" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J23" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
@@ -1319,6 +1324,34 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>180.8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>53.92</v>
+      </c>
+      <c r="H23" s="2">
+        <v>174.9</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>-59.820000000000022</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86910C7A-C2E1-44D3-9C0E-1884E475DB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46591D7F-06CD-4984-92D9-D2B018E96F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>年份</t>
   </si>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +640,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J23" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J24" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
@@ -1355,6 +1359,34 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
+        <v>208.28</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>219.2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>-16.080000000000013</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46591D7F-06CD-4984-92D9-D2B018E96F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D643B183-34E1-4208-BD7C-A0D398D56305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>年份</t>
   </si>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +644,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J24" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
+        <f t="shared" ref="J3:J25" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
         <v>-732.93000000000006</v>
       </c>
     </row>
@@ -1390,6 +1394,34 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>230</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>-230</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D643B183-34E1-4208-BD7C-A0D398D56305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725575EA-6DCC-416F-8F36-4E58CE06D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>年份</t>
   </si>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1425,6 +1425,34 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>440.8</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3416.72</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ref="J26" si="1">(H26+I26)-(C26+D26+E26+F26+G26)</f>
+        <v>-3857.52</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725575EA-6DCC-416F-8F36-4E58CE06D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27795" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>年份</t>
   </si>
@@ -112,6 +95,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -119,48 +109,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,27 +141,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +302,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -303,11 +586,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,66 +843,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -635,76 +1198,76 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
     <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2"/>
+    <col min="10" max="10" width="9.375" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="16" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -734,10 +1297,10 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J25" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
-        <v>-732.93000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-732.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -758,17 +1321,17 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1201.4000000000001</v>
+        <v>1201.4</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>6.2000000000000455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.20000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -789,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>316.60000000000002</v>
+        <v>316.6</v>
       </c>
       <c r="I5" s="2">
         <v>15.33</v>
@@ -799,7 +1362,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -830,7 +1393,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -861,7 +1424,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -892,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -925,7 +1488,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -956,7 +1519,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -987,9 +1550,9 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="11"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2">
@@ -1015,10 +1578,10 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-734.93000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-734.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1049,13 +1612,13 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="11"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>309.33999999999997</v>
+        <v>309.34</v>
       </c>
       <c r="D14" s="2">
         <v>140</v>
@@ -1077,10 +1640,10 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-3986.7400000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-3986.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1108,12 +1671,12 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-276.89999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-276.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="11"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
@@ -1132,17 +1695,17 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>262.60000000000002</v>
+        <v>262.6</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-95.419999999999959</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-95.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1163,7 +1726,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="2">
-        <v>268.89999999999998</v>
+        <v>268.9</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1173,9 +1736,9 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="11"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
@@ -1201,12 +1764,12 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-11.700000000000045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="11"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2">
@@ -1232,13 +1795,13 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-77.650000000000034</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-77.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="12"/>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
+      <c r="B20" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>60.01</v>
@@ -1263,15 +1826,15 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>34.490000000000009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>34.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <v>254.86</v>
@@ -1296,13 +1859,13 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>-21.180000000000035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>-21.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C22" s="2">
         <v>272.27</v>
@@ -1330,10 +1893,10 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
+    <row r="23" spans="1:10">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="2">
         <v>180.8</v>
@@ -1358,13 +1921,13 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-59.820000000000022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>-59.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="2">
         <v>208.28</v>
@@ -1389,13 +1952,13 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-16.080000000000013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>-16.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="2">
         <v>230</v>
@@ -1423,9 +1986,9 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2">
@@ -1454,37 +2017,65 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+    <row r="27" spans="1:10">
+      <c r="A27" s="15"/>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <v>280</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <f>(H27+I27)-(C27+D27+E27+F27+G27)</f>
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="15"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="15"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="15"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F05107-1175-4414-AD2D-BF67C441387E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="11985"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>年份</t>
   </si>
@@ -118,18 +135,16 @@
   <si>
     <t>2022</t>
   </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,151 +160,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,194 +187,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -586,253 +285,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,104 +300,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1198,19 +617,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
@@ -1219,11 +638,11 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1232,42 +651,42 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="17"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1297,10 +716,10 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J25" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
-        <v>-732.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>-732.93000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -1321,17 +740,17 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1201.4</v>
+        <v>1201.4000000000001</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>6.20000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>6.2000000000000455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -1352,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>316.6</v>
+        <v>316.60000000000002</v>
       </c>
       <c r="I5" s="2">
         <v>15.33</v>
@@ -1362,7 +781,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -1393,7 +812,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -1424,7 +843,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -1455,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +907,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -1519,7 +938,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -1550,9 +969,9 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2">
@@ -1578,10 +997,10 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-734.93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>-734.93000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1612,13 +1031,13 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>309.34</v>
+        <v>309.33999999999997</v>
       </c>
       <c r="D14" s="2">
         <v>140</v>
@@ -1640,10 +1059,10 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-3986.74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>-3986.7400000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1671,12 +1090,12 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-276.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>-276.89999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
@@ -1695,17 +1114,17 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-95.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>-95.419999999999959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1726,7 +1145,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="2">
-        <v>268.9</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1736,9 +1155,9 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
@@ -1764,12 +1183,12 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-11.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>-11.700000000000045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2">
@@ -1795,12 +1214,12 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-77.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>-77.650000000000034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2">
@@ -1826,14 +1245,14 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>34.49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="14" t="s">
+        <v>34.490000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2">
@@ -1859,12 +1278,12 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>-21.18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13" t="s">
+        <v>-21.180000000000035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2">
@@ -1893,9 +1312,9 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
@@ -1921,12 +1340,12 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-59.82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="13" t="s">
+        <v>-59.820000000000022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2">
@@ -1952,12 +1371,12 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-16.08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13" t="s">
+        <v>-16.080000000000013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2">
@@ -1986,9 +1405,9 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="13" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2">
@@ -2017,8 +1436,8 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -2048,34 +1467,62 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="15"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="15"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="15"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="15"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="16"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
+        <v>181.54</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <f>(H28+I28)-(C28+D28+E28+F28+G28)</f>
+        <v>-181.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A20"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F05107-1175-4414-AD2D-BF67C441387E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F3D8A6-EF68-456C-9C3A-BDDE5278D27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>年份</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,6 +310,27 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -325,27 +350,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,43 +630,44 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="2"/>
+    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="17"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -684,10 +689,10 @@
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -719,8 +724,8 @@
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -750,8 +755,8 @@
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -781,8 +786,8 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -812,8 +817,8 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -843,8 +848,8 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -874,8 +879,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -907,8 +912,8 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -938,8 +943,8 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -969,8 +974,8 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1000,8 +1005,8 @@
         <v>-734.93000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1031,8 +1036,8 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1062,8 +1067,8 @@
         <v>-3986.7400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,8 +1098,8 @@
         <v>-276.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1124,8 +1129,8 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,8 +1160,8 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1191,8 @@
         <v>-11.700000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1217,8 +1222,8 @@
         <v>-77.650000000000034</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1248,8 +1253,8 @@
         <v>34.490000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1281,8 +1286,8 @@
         <v>-21.180000000000035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1312,8 +1317,8 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1343,8 +1348,8 @@
         <v>-59.820000000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1374,8 +1379,8 @@
         <v>-16.080000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1405,8 +1410,8 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1436,8 +1441,8 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1467,9 +1472,9 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="19" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="2">
@@ -1498,17 +1503,45 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2">
+        <v>445.79</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <f>(H29+I29)-(C29+D29+E29+F29+G29)</f>
+        <v>-452.79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F3D8A6-EF68-456C-9C3A-BDDE5278D27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A50C0C-013D-4567-A108-9A3D60639A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>年份</t>
   </si>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -630,20 +634,20 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="2"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -665,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="11"/>
       <c r="C2" s="4" t="s">
@@ -691,7 +695,7 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -724,7 +728,7 @@
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -755,7 +759,7 @@
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -786,7 +790,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -817,7 +821,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -848,7 +852,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -879,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>19</v>
       </c>
@@ -912,7 +916,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -943,7 +947,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -974,7 +978,7 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
@@ -1005,7 +1009,7 @@
         <v>-734.93000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1036,7 +1040,7 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1067,7 +1071,7 @@
         <v>-3986.7400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1098,7 +1102,7 @@
         <v>-276.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1129,7 +1133,7 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1160,7 +1164,7 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1191,7 +1195,7 @@
         <v>-11.700000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -1222,7 +1226,7 @@
         <v>-77.650000000000034</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1253,7 +1257,7 @@
         <v>34.490000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>-21.180000000000035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -1317,7 +1321,7 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -1348,7 +1352,7 @@
         <v>-59.820000000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -1379,7 +1383,7 @@
         <v>-16.080000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -1410,7 +1414,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -1441,7 +1445,7 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -1472,7 +1476,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
         <v>28</v>
@@ -1503,7 +1507,7 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
         <v>29</v>
@@ -1534,13 +1538,41 @@
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2">
+        <v>642.9</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <f>(H30+I30)-(C30+D30+E30+F30+G30)</f>
+        <v>-650.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
     </row>
   </sheetData>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A50C0C-013D-4567-A108-9A3D60639A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9297B6B6-CE65-47AE-B6DE-94B4FCF9EE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>年份</t>
   </si>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +639,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1571,6 +1575,34 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
+      <c r="B31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2">
+        <v>352.41</v>
+      </c>
+      <c r="D31" s="2">
+        <v>246</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <f>(H31+I31)-(C31+D31+E31+F31+G31)</f>
+        <v>-603.41000000000008</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9297B6B6-CE65-47AE-B6DE-94B4FCF9EE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7C4545-954D-4F14-BD71-8A37A8777FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>年份</t>
   </si>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,20 +642,20 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="2"/>
+    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -673,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="11"/>
       <c r="C2" s="4" t="s">
@@ -699,7 +703,7 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -732,7 +736,7 @@
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -763,7 +767,7 @@
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -794,7 +798,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -825,7 +829,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -856,7 +860,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -887,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>19</v>
       </c>
@@ -920,7 +924,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -951,7 +955,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -982,7 +986,7 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
@@ -1013,7 +1017,7 @@
         <v>-734.93000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1044,7 +1048,7 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1075,7 +1079,7 @@
         <v>-3986.7400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1106,7 +1110,7 @@
         <v>-276.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1137,7 +1141,7 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1168,7 +1172,7 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1199,7 +1203,7 @@
         <v>-11.700000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -1230,7 +1234,7 @@
         <v>-77.650000000000034</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1261,7 +1265,7 @@
         <v>34.490000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>-21.180000000000035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -1325,7 +1329,7 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -1356,7 +1360,7 @@
         <v>-59.820000000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -1387,7 +1391,7 @@
         <v>-16.080000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -1418,7 +1422,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -1449,7 +1453,7 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -1480,7 +1484,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
         <v>28</v>
@@ -1511,7 +1515,7 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
         <v>29</v>
@@ -1542,7 +1546,7 @@
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="6" t="s">
         <v>30</v>
@@ -1573,7 +1577,7 @@
         <v>-650.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
         <v>31</v>
@@ -1604,8 +1608,36 @@
         <v>-603.41000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
+      <c r="B32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2">
+        <v>706.4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>188</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <f>(H32+I32)-(C32+D32+E32+F32+G32)</f>
+        <v>-894.4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7C4545-954D-4F14-BD71-8A37A8777FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15FB4A3-D4DE-40C5-AA58-624C256682CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>年份</t>
   </si>
@@ -149,6 +149,22 @@
   </si>
   <si>
     <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -305,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,6 +378,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,23 +664,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="2"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -677,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="11"/>
       <c r="C2" s="4" t="s">
@@ -703,7 +728,7 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -736,7 +761,7 @@
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -767,7 +792,7 @@
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -798,7 +823,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -829,7 +854,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -860,7 +885,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -891,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>19</v>
       </c>
@@ -924,7 +949,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -955,7 +980,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -986,7 +1011,7 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
@@ -1017,7 +1042,7 @@
         <v>-734.93000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1048,7 +1073,7 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1079,7 +1104,7 @@
         <v>-3986.7400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1110,7 +1135,7 @@
         <v>-276.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1141,7 +1166,7 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1172,7 +1197,7 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1203,7 +1228,7 @@
         <v>-11.700000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -1234,7 +1259,7 @@
         <v>-77.650000000000034</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1265,7 +1290,7 @@
         <v>34.490000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1323,7 @@
         <v>-21.180000000000035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -1329,7 +1354,7 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -1360,7 +1385,7 @@
         <v>-59.820000000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -1391,7 +1416,7 @@
         <v>-16.080000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -1422,7 +1447,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -1453,7 +1478,7 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -1480,11 +1505,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <f>(H27+I27)-(C27+D27+E27+F27+G27)</f>
+        <f t="shared" ref="J27:J33" si="2">(H27+I27)-(C27+D27+E27+F27+G27)</f>
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
         <v>28</v>
@@ -1511,11 +1536,11 @@
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <f>(H28+I28)-(C28+D28+E28+F28+G28)</f>
+        <f t="shared" si="2"/>
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
         <v>29</v>
@@ -1542,11 +1567,11 @@
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <f>(H29+I29)-(C29+D29+E29+F29+G29)</f>
+        <f t="shared" si="2"/>
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="6" t="s">
         <v>30</v>
@@ -1573,11 +1598,11 @@
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <f>(H30+I30)-(C30+D30+E30+F30+G30)</f>
+        <f t="shared" si="2"/>
         <v>-650.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
         <v>31</v>
@@ -1604,11 +1629,11 @@
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <f>(H31+I31)-(C31+D31+E31+F31+G31)</f>
+        <f t="shared" si="2"/>
         <v>-603.41000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
         <v>32</v>
@@ -1635,12 +1660,112 @@
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <f>(H32+I32)-(C32+D32+E32+F32+G32)</f>
+        <f t="shared" si="2"/>
         <v>-894.4</v>
       </c>
     </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>131</v>
+      </c>
+      <c r="E33" s="2">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="2"/>
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A33:A44"/>
     <mergeCell ref="A21:A32"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="J1:J2"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15FB4A3-D4DE-40C5-AA58-624C256682CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27795" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>年份</t>
   </si>
@@ -136,47 +119,20 @@
     <t>2022</t>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,21 +148,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +305,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -317,11 +589,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,13 +846,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,57 +897,65 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -658,20 +1213,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
@@ -680,56 +1236,56 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="13" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -758,11 +1314,11 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J25" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
-        <v>-732.93000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+        <v>-732.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -782,18 +1338,18 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1201.4000000000001</v>
+        <v>1201.4</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>6.2000000000000455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+        <v>6.20000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -813,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>316.60000000000002</v>
+        <v>316.6</v>
       </c>
       <c r="I5" s="2">
         <v>15.33</v>
@@ -823,8 +1379,8 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -854,8 +1410,8 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -885,8 +1441,8 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -916,8 +1472,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -949,8 +1505,8 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -980,8 +1536,8 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1011,9 +1567,9 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2">
@@ -1039,11 +1595,11 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-734.93000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+        <v>-734.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1073,13 +1629,13 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>309.33999999999997</v>
+        <v>309.34</v>
       </c>
       <c r="D14" s="2">
         <v>140</v>
@@ -1101,11 +1657,11 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-3986.7400000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+        <v>-3986.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1132,12 +1688,12 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-276.89999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="5" t="s">
+        <v>-276.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
@@ -1156,18 +1712,18 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>262.60000000000002</v>
+        <v>262.6</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-95.419999999999959</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+        <v>-95.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1743,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="2">
-        <v>268.89999999999998</v>
+        <v>268.9</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1197,9 +1753,9 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
@@ -1225,12 +1781,12 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-11.700000000000045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="5" t="s">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2">
@@ -1256,12 +1812,12 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-77.650000000000034</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="5" t="s">
+        <v>-77.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2">
@@ -1287,14 +1843,14 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>34.490000000000009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+        <v>34.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2">
@@ -1320,12 +1876,12 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>-21.180000000000035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5" t="s">
+        <v>-21.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2">
@@ -1354,9 +1910,9 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
@@ -1382,12 +1938,12 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-59.820000000000022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5" t="s">
+        <v>-59.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2">
@@ -1413,12 +1969,12 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-16.080000000000013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5" t="s">
+        <v>-16.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2">
@@ -1447,9 +2003,9 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2">
@@ -1478,8 +2034,8 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:10">
+      <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1509,10 +2065,10 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="6" t="s">
-        <v>28</v>
+    <row r="28" spans="1:10">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C28" s="2">
         <v>181.54</v>
@@ -1540,10 +2096,10 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="6" t="s">
-        <v>29</v>
+    <row r="29" spans="1:10">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C29" s="2">
         <v>445.79</v>
@@ -1571,10 +2127,10 @@
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="6" t="s">
-        <v>30</v>
+    <row r="30" spans="1:10">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C30" s="2">
         <v>642.9</v>
@@ -1602,10 +2158,10 @@
         <v>-650.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="6" t="s">
-        <v>31</v>
+    <row r="31" spans="1:10">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C31" s="2">
         <v>352.41</v>
@@ -1630,13 +2186,13 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="2"/>
-        <v>-603.41000000000008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
+        <v>-603.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>706.4</v>
@@ -1664,12 +2220,12 @@
         <v>-894.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>34</v>
+    <row r="33" spans="1:10">
+      <c r="A33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -1697,86 +2253,111 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="6" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" s="19"/>
+      <c r="B34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2">
+        <v>853.5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>37</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1120</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <f>(H34+I34)-(C34+D34+E34+F34+G34)</f>
+        <v>-2015.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="6" t="s">
-        <v>36</v>
+    <row r="44" spans="1:2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A03647-BA6B-42A9-8197-1FB40CDA77CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="11880"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -125,14 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,151 +159,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,194 +178,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -589,253 +276,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,116 +291,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1213,79 +617,78 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="2"/>
+    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1314,11 +717,11 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J25" si="0">(H3+I3)-(C3+D3+E3+F3+G3)</f>
-        <v>-732.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="11"/>
+        <v>-732.93000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1338,18 +741,18 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1201.4</v>
+        <v>1201.4000000000001</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>6.20000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="11"/>
+        <v>6.2000000000000455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>316.6</v>
+        <v>316.60000000000002</v>
       </c>
       <c r="I5" s="2">
         <v>15.33</v>
@@ -1379,8 +782,8 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1410,8 +813,8 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1441,8 +844,8 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1472,8 +875,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1505,8 +908,8 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1536,8 +939,8 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1567,9 +970,9 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2">
@@ -1595,11 +998,11 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>-734.93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
+        <v>-734.93000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1629,13 +1032,13 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>309.34</v>
+        <v>309.33999999999997</v>
       </c>
       <c r="D14" s="2">
         <v>140</v>
@@ -1657,11 +1060,11 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>-3986.74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="11"/>
+        <v>-3986.7400000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1688,12 +1091,12 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>-276.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13" t="s">
+        <v>-276.89999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
@@ -1712,18 +1115,18 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>-95.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="11"/>
+        <v>-95.419999999999959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1743,7 +1146,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="2">
-        <v>268.9</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1753,9 +1156,9 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
@@ -1781,12 +1184,12 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>-11.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13" t="s">
+        <v>-11.700000000000045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2">
@@ -1812,12 +1215,12 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>-77.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
+        <v>-77.650000000000034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2">
@@ -1843,14 +1246,14 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>34.49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>34.490000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2">
@@ -1876,12 +1279,12 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>-21.18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>-21.180000000000035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2">
@@ -1910,9 +1313,9 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
@@ -1938,12 +1341,12 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>-59.82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>-59.820000000000022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2">
@@ -1969,12 +1372,12 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>-16.08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>-16.080000000000013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2">
@@ -2003,9 +1406,9 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2">
@@ -2034,7 +1437,7 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -2065,9 +1468,9 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="2">
@@ -2096,9 +1499,9 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="2">
@@ -2127,9 +1530,9 @@
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="2">
@@ -2158,9 +1561,9 @@
         <v>-650.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="2">
@@ -2186,12 +1589,12 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="2"/>
-        <v>-603.41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="16" t="s">
+        <v>-603.41000000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="2">
@@ -2220,11 +1623,11 @@
         <v>-894.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="2">
@@ -2253,9 +1656,9 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="19"/>
-      <c r="B34" s="16" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="2">
@@ -2284,80 +1687,130 @@
         <v>-2015.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="16" t="s">
+      <c r="C35" s="2">
+        <v>757.4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <f>(H35+I35)-(C35+D35+E35+F35+G35)</f>
+        <v>-799.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="16" t="s">
+      <c r="C36" s="2">
+        <v>539.84</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <f>(H36+I36)-(C36+D36+E36+F36+G36)</f>
+        <v>-554.84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="16" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="16" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="16" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="16" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="16" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="16" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="16" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="6" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A20"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A03647-BA6B-42A9-8197-1FB40CDA77CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017C6F1-23E8-481D-958F-1A50A307A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,6 +300,33 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,33 +346,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,43 +627,43 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="2"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="7" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="21"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -685,10 +685,10 @@
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -720,8 +720,8 @@
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -751,8 +751,8 @@
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -782,8 +782,8 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -813,8 +813,8 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -844,8 +844,8 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -875,8 +875,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -908,8 +908,8 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -939,8 +939,8 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -970,8 +970,8 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1001,8 +1001,8 @@
         <v>-734.93000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1032,8 +1032,8 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1063,8 +1063,8 @@
         <v>-3986.7400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1094,8 @@
         <v>-276.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1125,8 +1125,8 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1156,8 +1156,8 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1187,8 @@
         <v>-11.700000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1218,8 +1218,8 @@
         <v>-77.650000000000034</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1249,8 +1249,8 @@
         <v>34.490000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1282,8 +1282,8 @@
         <v>-21.180000000000035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1313,8 +1313,8 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1344,8 +1344,8 @@
         <v>-59.820000000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1375,8 +1375,8 @@
         <v>-16.080000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1406,8 +1406,8 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1437,8 +1437,8 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1468,8 +1468,8 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
@@ -1499,8 +1499,8 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
@@ -1530,8 +1530,8 @@
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
@@ -1561,8 +1561,8 @@
         <v>-650.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
         <v>17</v>
       </c>
@@ -1592,8 +1592,8 @@
         <v>-603.41000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
       </c>
@@ -1623,8 +1623,8 @@
         <v>-894.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1656,8 +1656,8 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
       <c r="B34" s="6" t="s">
         <v>21</v>
       </c>
@@ -1687,8 +1687,8 @@
         <v>-2015.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
       <c r="B35" s="6" t="s">
         <v>22</v>
       </c>
@@ -1718,8 +1718,8 @@
         <v>-799.4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
@@ -1749,50 +1749,75 @@
         <v>-554.84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
       <c r="B37" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="C37" s="2">
+        <v>180.4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>78</v>
+      </c>
+      <c r="E37" s="2">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <f>(H37+I37)-(C37+D37+E37+F37+G37)</f>
+        <v>-272.39999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
       <c r="B38" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
       <c r="B43" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
       <c r="B44" s="6" t="s">
         <v>18</v>
       </c>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017C6F1-23E8-481D-958F-1A50A307A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747A4727-BF7E-46C1-BF18-5440517CC59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,19 +627,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="2"/>
+    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="14"/>
       <c r="C2" s="4" t="s">
@@ -687,7 +687,7 @@
       </c>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
@@ -720,7 +720,7 @@
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -751,7 +751,7 @@
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -782,7 +782,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -813,7 +813,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -844,7 +844,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -908,7 +908,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -970,7 +970,7 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
@@ -1001,7 +1001,7 @@
         <v>-734.93000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1032,7 +1032,7 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1063,7 +1063,7 @@
         <v>-3986.7400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1094,7 +1094,7 @@
         <v>-276.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1125,7 +1125,7 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1156,7 +1156,7 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1187,7 +1187,7 @@
         <v>-11.700000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -1218,7 +1218,7 @@
         <v>-77.650000000000034</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1249,7 +1249,7 @@
         <v>34.490000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>-21.180000000000035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -1313,7 +1313,7 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -1344,7 +1344,7 @@
         <v>-59.820000000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -1375,7 +1375,7 @@
         <v>-16.080000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -1406,7 +1406,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -1437,7 +1437,7 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -1468,7 +1468,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -1499,7 +1499,7 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
@@ -1530,7 +1530,7 @@
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
@@ -1561,7 +1561,7 @@
         <v>-650.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
         <v>17</v>
@@ -1592,7 +1592,7 @@
         <v>-603.41000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
@@ -1623,7 +1623,7 @@
         <v>-894.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="6" t="s">
         <v>21</v>
@@ -1687,7 +1687,7 @@
         <v>-2015.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="6" t="s">
         <v>22</v>
@@ -1718,7 +1718,7 @@
         <v>-799.4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
@@ -1749,7 +1749,7 @@
         <v>-554.84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="6" t="s">
         <v>24</v>
@@ -1780,43 +1780,68 @@
         <v>-272.39999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="D38" s="2">
+        <v>203</v>
+      </c>
+      <c r="E38" s="2">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3294.04</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <f>(H38+I38)-(C38+D38+E38+F38+G38)</f>
+        <v>-3778.44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="6" t="s">
         <v>18</v>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747A4727-BF7E-46C1-BF18-5440517CC59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DDECDF-20FE-46F7-8D8B-F83E29D16383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,19 +627,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="2"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="14"/>
       <c r="C2" s="4" t="s">
@@ -687,7 +687,7 @@
       </c>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
@@ -720,7 +720,7 @@
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -751,7 +751,7 @@
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -782,7 +782,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -813,7 +813,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -844,7 +844,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -908,7 +908,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -970,7 +970,7 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
@@ -1001,7 +1001,7 @@
         <v>-734.93000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1032,7 +1032,7 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1063,7 +1063,7 @@
         <v>-3986.7400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1094,7 +1094,7 @@
         <v>-276.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1125,7 +1125,7 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1156,7 +1156,7 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1187,7 +1187,7 @@
         <v>-11.700000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -1218,7 +1218,7 @@
         <v>-77.650000000000034</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1249,7 +1249,7 @@
         <v>34.490000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>-21.180000000000035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -1313,7 +1313,7 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -1344,7 +1344,7 @@
         <v>-59.820000000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -1375,7 +1375,7 @@
         <v>-16.080000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -1406,7 +1406,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -1437,7 +1437,7 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -1468,7 +1468,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -1499,7 +1499,7 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
@@ -1530,7 +1530,7 @@
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
@@ -1561,7 +1561,7 @@
         <v>-650.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
         <v>17</v>
@@ -1592,7 +1592,7 @@
         <v>-603.41000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
@@ -1623,7 +1623,7 @@
         <v>-894.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="6" t="s">
         <v>21</v>
@@ -1687,7 +1687,7 @@
         <v>-2015.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="6" t="s">
         <v>22</v>
@@ -1718,7 +1718,7 @@
         <v>-799.4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
@@ -1749,7 +1749,7 @@
         <v>-554.84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="6" t="s">
         <v>24</v>
@@ -1780,7 +1780,7 @@
         <v>-272.39999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="6" t="s">
         <v>25</v>
@@ -1811,37 +1811,62 @@
         <v>-3778.44</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <v>471</v>
+      </c>
+      <c r="D39" s="2">
+        <v>931</v>
+      </c>
+      <c r="E39" s="2">
+        <v>86.42</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <f>(H39+I39)-(C39+D39+E39+F39+G39)</f>
+        <v>-1488.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="6" t="s">
         <v>18</v>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DDECDF-20FE-46F7-8D8B-F83E29D16383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEC4A78-0DAC-4170-959A-AACB4533726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f>(H34+I34)-(C34+D34+E34+F34+G34)</f>
+        <f t="shared" ref="J34:J40" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
         <v>-2015.5</v>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <f>(H35+I35)-(C35+D35+E35+F35+G35)</f>
+        <f t="shared" si="3"/>
         <v>-799.4</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <f>(H36+I36)-(C36+D36+E36+F36+G36)</f>
+        <f t="shared" si="3"/>
         <v>-554.84</v>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <f>(H37+I37)-(C37+D37+E37+F37+G37)</f>
+        <f t="shared" si="3"/>
         <v>-272.39999999999998</v>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <f>(H38+I38)-(C38+D38+E38+F38+G38)</f>
+        <f t="shared" si="3"/>
         <v>-3778.44</v>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <f>(H39+I39)-(C39+D39+E39+F39+G39)</f>
+        <f t="shared" si="3"/>
         <v>-1488.42</v>
       </c>
     </row>
@@ -1846,6 +1846,31 @@
       <c r="A40" s="11"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>826.62</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="3"/>
+        <v>-839.52</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEC4A78-0DAC-4170-959A-AACB4533726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6423AC8D-F5AC-4C51-ADBF-2CCE9954A550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -626,20 +626,20 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="2"/>
+    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="14"/>
       <c r="C2" s="4" t="s">
@@ -687,7 +687,7 @@
       </c>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
@@ -720,7 +720,7 @@
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -751,7 +751,7 @@
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -782,7 +782,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -813,7 +813,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -844,7 +844,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -908,7 +908,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -970,7 +970,7 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
@@ -1001,7 +1001,7 @@
         <v>-734.93000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1032,7 +1032,7 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1063,7 +1063,7 @@
         <v>-3986.7400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1094,7 +1094,7 @@
         <v>-276.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1125,7 +1125,7 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1156,7 +1156,7 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1187,7 +1187,7 @@
         <v>-11.700000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -1218,7 +1218,7 @@
         <v>-77.650000000000034</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1249,7 +1249,7 @@
         <v>34.490000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>-21.180000000000035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -1313,7 +1313,7 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -1344,7 +1344,7 @@
         <v>-59.820000000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -1375,7 +1375,7 @@
         <v>-16.080000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -1406,7 +1406,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -1437,7 +1437,7 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -1468,7 +1468,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -1499,7 +1499,7 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
@@ -1530,7 +1530,7 @@
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
@@ -1561,7 +1561,7 @@
         <v>-650.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
         <v>17</v>
@@ -1592,7 +1592,7 @@
         <v>-603.41000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
@@ -1623,7 +1623,7 @@
         <v>-894.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="6" t="s">
         <v>21</v>
@@ -1683,11 +1683,11 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J40" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
+        <f t="shared" ref="J34:J42" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
         <v>-2015.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="6" t="s">
         <v>22</v>
@@ -1718,7 +1718,7 @@
         <v>-799.4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
@@ -1749,7 +1749,7 @@
         <v>-554.84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="6" t="s">
         <v>24</v>
@@ -1780,7 +1780,7 @@
         <v>-272.39999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="6" t="s">
         <v>25</v>
@@ -1811,7 +1811,7 @@
         <v>-3778.44</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
@@ -1842,7 +1842,7 @@
         <v>-1488.42</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
@@ -1873,25 +1873,75 @@
         <v>-839.52</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>351</v>
+      </c>
+      <c r="E41" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="3"/>
+        <v>-382.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C42" s="2">
+        <v>270</v>
+      </c>
+      <c r="D42" s="2">
+        <v>39</v>
+      </c>
+      <c r="E42" s="2">
+        <v>13.53</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="3"/>
+        <v>-322.52999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="6" t="s">
         <v>18</v>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6423AC8D-F5AC-4C51-ADBF-2CCE9954A550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454103B9-F39B-4338-BC23-1213AED8037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,19 +627,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="2"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="14"/>
       <c r="C2" s="4" t="s">
@@ -687,7 +687,7 @@
       </c>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
@@ -720,7 +720,7 @@
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -751,7 +751,7 @@
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -782,7 +782,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -813,7 +813,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -844,7 +844,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -908,7 +908,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -970,7 +970,7 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
@@ -1001,7 +1001,7 @@
         <v>-734.93000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1032,7 +1032,7 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1063,7 +1063,7 @@
         <v>-3986.7400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1094,7 +1094,7 @@
         <v>-276.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1125,7 +1125,7 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1156,7 +1156,7 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1187,7 +1187,7 @@
         <v>-11.700000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -1218,7 +1218,7 @@
         <v>-77.650000000000034</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1249,7 +1249,7 @@
         <v>34.490000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>-21.180000000000035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -1313,7 +1313,7 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -1344,7 +1344,7 @@
         <v>-59.820000000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -1375,7 +1375,7 @@
         <v>-16.080000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -1406,7 +1406,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -1437,7 +1437,7 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -1468,7 +1468,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -1499,7 +1499,7 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
@@ -1530,7 +1530,7 @@
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
@@ -1561,7 +1561,7 @@
         <v>-650.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
         <v>17</v>
@@ -1592,7 +1592,7 @@
         <v>-603.41000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
@@ -1623,7 +1623,7 @@
         <v>-894.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="6" t="s">
         <v>21</v>
@@ -1683,11 +1683,11 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J42" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
+        <f t="shared" ref="J34:J43" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
         <v>-2015.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="6" t="s">
         <v>22</v>
@@ -1718,7 +1718,7 @@
         <v>-799.4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
@@ -1749,7 +1749,7 @@
         <v>-554.84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="6" t="s">
         <v>24</v>
@@ -1780,7 +1780,7 @@
         <v>-272.39999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="6" t="s">
         <v>25</v>
@@ -1811,7 +1811,7 @@
         <v>-3778.44</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
@@ -1842,7 +1842,7 @@
         <v>-1488.42</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
@@ -1873,7 +1873,7 @@
         <v>-839.52</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
@@ -1904,7 +1904,7 @@
         <v>-382.2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="6" t="s">
         <v>16</v>
@@ -1935,13 +1935,38 @@
         <v>-322.52999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <v>1027.29</v>
+      </c>
+      <c r="D43" s="2">
+        <v>593</v>
+      </c>
+      <c r="E43" s="2">
+        <v>55</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="3"/>
+        <v>-1675.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="6" t="s">
         <v>18</v>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454103B9-F39B-4338-BC23-1213AED8037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF2E4B-3467-46DD-B059-1F1D5D5BF99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomLeft" activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J43" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
+        <f t="shared" ref="J34:J44" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
         <v>-2015.5</v>
       </c>
     </row>
@@ -1970,6 +1970,31 @@
       <c r="A44" s="12"/>
       <c r="B44" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1110.01</v>
+      </c>
+      <c r="D44" s="2">
+        <v>380</v>
+      </c>
+      <c r="E44" s="2">
+        <v>173.9</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>359.99</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="3"/>
+        <v>-2023.9</v>
       </c>
     </row>
   </sheetData>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF2E4B-3467-46DD-B059-1F1D5D5BF99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B89C42F-3CEF-4155-A839-0AAD02991760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>年份</t>
   </si>
@@ -138,12 +138,20 @@
   <si>
     <t>2023</t>
   </si>
+  <si>
+    <t>2024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +169,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,6 +362,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,11 +645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N49" sqref="N49"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1683,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J44" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
+        <f t="shared" ref="J34:J45" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
         <v>-2015.5</v>
       </c>
     </row>
@@ -1997,8 +2019,108 @@
         <v>-2023.9</v>
       </c>
     </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2">
+        <v>297.26</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1032</v>
+      </c>
+      <c r="E45" s="2">
+        <v>105.5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="3"/>
+        <v>-1434.76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="22"/>
+      <c r="B56" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A45:A56"/>
     <mergeCell ref="A21:A32"/>
     <mergeCell ref="A33:A44"/>
     <mergeCell ref="B1:B2"/>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B89C42F-3CEF-4155-A839-0AAD02991760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E0903-5B21-4BA0-BDBA-89AA442420EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,6 +316,18 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,18 +368,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,30 +662,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="16" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -707,10 +707,10 @@
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -743,7 +743,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -774,7 +774,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -805,7 +805,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -836,7 +836,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -867,7 +867,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -898,7 +898,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -931,7 +931,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -962,7 +962,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -993,7 +993,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1055,7 +1055,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1086,7 +1086,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +1210,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +1336,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1367,7 +1367,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1398,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
@@ -1522,7 +1522,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
@@ -1584,7 +1584,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="6" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
       </c>
@@ -1646,7 +1646,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1679,7 +1679,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="6" t="s">
         <v>21</v>
       </c>
@@ -1705,12 +1705,12 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J45" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
+        <f t="shared" ref="J34:J47" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
         <v>-2015.5</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="6" t="s">
         <v>22</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
@@ -1772,7 +1772,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="6" t="s">
         <v>24</v>
       </c>
@@ -1803,7 +1803,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="6" t="s">
         <v>25</v>
       </c>
@@ -1834,7 +1834,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1865,7 +1865,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
@@ -1896,7 +1896,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
@@ -1927,7 +1927,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="6" t="s">
         <v>17</v>
       </c>
@@ -1989,7 +1989,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="6" t="s">
         <v>18</v>
       </c>
@@ -2020,10 +2020,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="2">
@@ -2053,68 +2053,118 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="24" t="s">
+      <c r="A46" s="9"/>
+      <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="C46" s="2">
+        <v>279.14</v>
+      </c>
+      <c r="D46" s="2">
+        <v>185</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="3"/>
+        <v>-464.14</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="C47" s="2">
+        <v>450</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>17.7</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="3"/>
+        <v>-467.7</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="24" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="9"/>
+      <c r="B49" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24" t="s">
+      <c r="A51" s="9"/>
+      <c r="B51" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="24" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="24" t="s">
+      <c r="A55" s="9"/>
+      <c r="B55" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="A56" s="10"/>
+      <c r="B56" s="7" t="s">
         <v>18</v>
       </c>
     </row>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E0903-5B21-4BA0-BDBA-89AA442420EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABED692F-B94B-4957-9889-0CAEDAF4A0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,7 +649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J47" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
+        <f t="shared" ref="J34:J48" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
         <v>-2015.5</v>
       </c>
     </row>
@@ -2118,6 +2118,31 @@
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
+      </c>
+      <c r="C48" s="2">
+        <v>768</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>22</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>300</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="3"/>
+        <v>-1090</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABED692F-B94B-4957-9889-0CAEDAF4A0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD0CB35-ADB9-457C-AB6C-6718F25E4F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,20 +648,20 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="2"/>
+    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="2"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="18"/>
       <c r="C2" s="4" t="s">
@@ -709,7 +709,7 @@
       </c>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
@@ -742,7 +742,7 @@
         <v>-732.93000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -773,7 +773,7 @@
         <v>6.2000000000000455</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -804,7 +804,7 @@
         <v>-388.07</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -835,7 +835,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -866,7 +866,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
@@ -930,7 +930,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -961,7 +961,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -992,7 +992,7 @@
         <v>-1785</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
@@ -1023,7 +1023,7 @@
         <v>-734.93000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1054,7 +1054,7 @@
         <v>-215.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1085,7 +1085,7 @@
         <v>-3986.7400000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -1116,7 +1116,7 @@
         <v>-276.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1147,7 +1147,7 @@
         <v>-95.419999999999959</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1178,7 +1178,7 @@
         <v>-278.98</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1209,7 +1209,7 @@
         <v>-11.700000000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -1240,7 +1240,7 @@
         <v>-77.650000000000034</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1271,7 +1271,7 @@
         <v>34.490000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>-21.180000000000035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -1335,7 +1335,7 @@
         <v>-221.57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -1366,7 +1366,7 @@
         <v>-59.820000000000022</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -1397,7 +1397,7 @@
         <v>-16.080000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -1428,7 +1428,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -1459,7 +1459,7 @@
         <v>-3857.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -1490,7 +1490,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -1521,7 +1521,7 @@
         <v>-181.54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
@@ -1552,7 +1552,7 @@
         <v>-452.79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
@@ -1583,7 +1583,7 @@
         <v>-650.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="6" t="s">
         <v>17</v>
@@ -1614,7 +1614,7 @@
         <v>-603.41000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
@@ -1645,7 +1645,7 @@
         <v>-894.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>28</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="6" t="s">
         <v>21</v>
@@ -1705,11 +1705,11 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J48" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
+        <f t="shared" ref="J34:J50" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
         <v>-2015.5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="6" t="s">
         <v>22</v>
@@ -1740,7 +1740,7 @@
         <v>-799.4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
@@ -1771,7 +1771,7 @@
         <v>-554.84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="6" t="s">
         <v>24</v>
@@ -1802,7 +1802,7 @@
         <v>-272.39999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="6" t="s">
         <v>25</v>
@@ -1833,7 +1833,7 @@
         <v>-3778.44</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
@@ -1864,7 +1864,7 @@
         <v>-1488.42</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
@@ -1895,7 +1895,7 @@
         <v>-839.52</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
@@ -1926,7 +1926,7 @@
         <v>-382.2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="6" t="s">
         <v>16</v>
@@ -1957,7 +1957,7 @@
         <v>-322.52999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="6" t="s">
         <v>17</v>
@@ -1988,7 +1988,7 @@
         <v>-1675.29</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="6" t="s">
         <v>18</v>
@@ -2019,7 +2019,7 @@
         <v>-2023.9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>-1434.76</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
         <v>21</v>
@@ -2083,7 +2083,7 @@
         <v>-464.14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
         <v>22</v>
@@ -2114,7 +2114,7 @@
         <v>-467.7</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
         <v>23</v>
@@ -2145,49 +2145,99 @@
         <v>-1090</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>299</v>
+      </c>
+      <c r="E49" s="2">
+        <v>18</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="3"/>
+        <v>-318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="2">
+        <v>781</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>3678.39</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="3"/>
+        <v>-4469.3899999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="7" t="s">
         <v>18</v>

--- a/汽车收入与开支记录.xlsx
+++ b/汽车收入与开支记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD0CB35-ADB9-457C-AB6C-6718F25E4F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAD6BB0-C0A2-4FBF-952B-9C79E9285AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,7 +649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J50" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
+        <f t="shared" ref="J34:J51" si="3">(H34+I34)-(C34+D34+E34+F34+G34)</f>
         <v>-2015.5</v>
       </c>
     </row>
@@ -2211,6 +2211,31 @@
       <c r="A51" s="9"/>
       <c r="B51" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="C51" s="2">
+        <v>703</v>
+      </c>
+      <c r="D51" s="2">
+        <v>183</v>
+      </c>
+      <c r="E51" s="2">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3365</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="3"/>
+        <v>-4261</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
